--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-DocumentReferenceIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
